--- a/Platas/Balance mundial 1.xlsx
+++ b/Platas/Balance mundial 1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\dackcl\Platas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -113,7 +113,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -160,9 +160,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -480,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,11 +626,11 @@
         <v>1000</v>
       </c>
       <c r="F12">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
-        <v>150000</v>
+        <v>143000</v>
       </c>
       <c r="H12" t="s">
         <v>21</v>
@@ -641,14 +641,14 @@
         <v>7</v>
       </c>
       <c r="E13" s="1">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="H13" t="s">
         <v>21</v>
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" ref="G15:G23" si="1">E16*F16</f>
+        <f t="shared" ref="G16:G23" si="1">E16*F16</f>
         <v>139060</v>
       </c>
       <c r="H16" t="s">
@@ -841,7 +841,7 @@
     <row r="26" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G26" s="2">
         <f>SUM(G5:G25)</f>
-        <v>602554</v>
+        <v>599554</v>
       </c>
     </row>
     <row r="27" spans="4:8" x14ac:dyDescent="0.25">
@@ -855,7 +855,7 @@
     <row r="28" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G28" s="3">
         <f>G27-G26</f>
-        <v>47446</v>
+        <v>50446</v>
       </c>
     </row>
   </sheetData>

--- a/Platas/Balance mundial 1.xlsx
+++ b/Platas/Balance mundial 1.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$D$4:$H$22</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -478,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:H28"/>
+  <dimension ref="D4:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,9 +493,10 @@
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>8</v>
       </c>
@@ -506,7 +510,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>3</v>
       </c>
@@ -523,8 +527,9 @@
       <c r="H5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>4</v>
       </c>
@@ -535,14 +540,15 @@
         <v>135</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ref="G6:G13" si="0">E6*F6</f>
+        <f t="shared" ref="G6:G12" si="0">E6*F6</f>
         <v>27000</v>
       </c>
       <c r="H6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>0</v>
       </c>
@@ -550,17 +556,18 @@
         <v>260</v>
       </c>
       <c r="F7">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>9360</v>
+        <v>8580</v>
       </c>
       <c r="H7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>1</v>
       </c>
@@ -568,17 +575,18 @@
         <v>346</v>
       </c>
       <c r="F8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
-        <v>12456</v>
+        <v>11764</v>
       </c>
       <c r="H8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>2</v>
       </c>
@@ -586,279 +594,279 @@
         <v>316</v>
       </c>
       <c r="F9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
-        <v>11376</v>
+        <v>10744</v>
       </c>
       <c r="H9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>819</v>
+      </c>
+      <c r="F10">
+        <v>33</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>27027</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11" s="1">
-        <v>819</v>
+        <v>1000</v>
       </c>
       <c r="F11">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
-        <v>26208</v>
+        <v>143000</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E12" s="1">
         <v>1000</v>
       </c>
       <c r="F12">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
-        <v>143000</v>
+        <v>12000</v>
       </c>
       <c r="H12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E13" s="1">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F13">
+        <v>135</v>
+      </c>
+      <c r="G13" s="1">
+        <f>E13*F13</f>
+        <v>13500</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1">
+        <v>139060</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" ref="G14:G21" si="1">E14*F14</f>
+        <v>139060</v>
+      </c>
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="1">
-        <f t="shared" si="0"/>
-        <v>12000</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="E15" s="1">
+        <v>120000</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+      <c r="H15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="1">
-        <v>100</v>
-      </c>
-      <c r="F14">
-        <v>135</v>
-      </c>
-      <c r="G14" s="1">
-        <f>E14*F14</f>
-        <v>13500</v>
-      </c>
-      <c r="H14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E16" s="1">
-        <v>139060</v>
+        <v>9830</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" ref="G16:G23" si="1">E16*F16</f>
-        <v>139060</v>
+        <f t="shared" si="1"/>
+        <v>9830</v>
       </c>
       <c r="H16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E17" s="1">
-        <v>120000</v>
+        <v>18480</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>18480</v>
       </c>
       <c r="H17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E18" s="1">
-        <v>9830</v>
+        <v>6820</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="1"/>
-        <v>9830</v>
+        <v>6820</v>
       </c>
       <c r="H18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E19" s="1">
-        <v>18480</v>
+        <v>300</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="1"/>
-        <v>18480</v>
+        <v>900</v>
       </c>
       <c r="H19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E20" s="1">
-        <v>6820</v>
+        <v>2000</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="1"/>
-        <v>6820</v>
+        <v>2000</v>
       </c>
       <c r="H20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E21" s="1">
-        <v>300</v>
+        <v>1190</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="1"/>
-        <v>900</v>
+        <v>16660</v>
       </c>
       <c r="H21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E22" s="1">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="1"/>
-        <v>2000</v>
+        <f t="shared" ref="G22" si="2">E22*F22</f>
+        <v>2500</v>
       </c>
       <c r="H22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1190</v>
-      </c>
-      <c r="F23">
-        <v>14</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" si="1"/>
-        <v>16660</v>
-      </c>
-      <c r="H23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="1">
-        <v>2500</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" ref="G24" si="2">E24*F24</f>
-        <v>2500</v>
-      </c>
-      <c r="H24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="G26" s="2">
-        <f>SUM(G5:G25)</f>
-        <v>599554</v>
-      </c>
-    </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F27" t="s">
+    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="G24" s="2">
+        <f>SUM(G5:G23)</f>
+        <v>598269</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G25" s="1">
         <v>650000</v>
       </c>
     </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="G28" s="3">
-        <f>G27-G26</f>
-        <v>50446</v>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="G26" s="3">
+        <f>G25-G24</f>
+        <v>51731</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D4:H22"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>